--- a/data/nzd0174/nzd0174.xlsx
+++ b/data/nzd0174/nzd0174.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R588"/>
+  <dimension ref="A1:R595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31894,6 +31894,408 @@
         </is>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>344.5057142857143</v>
+      </c>
+      <c r="C589" t="n">
+        <v>355.0657142857143</v>
+      </c>
+      <c r="D589" t="n">
+        <v>363.33</v>
+      </c>
+      <c r="E589" t="n">
+        <v>362.2657142857143</v>
+      </c>
+      <c r="F589" t="n">
+        <v>360.53</v>
+      </c>
+      <c r="G589" t="n">
+        <v>360.3257142857143</v>
+      </c>
+      <c r="H589" t="n">
+        <v>362.76</v>
+      </c>
+      <c r="I589" t="n">
+        <v>360.96</v>
+      </c>
+      <c r="J589" t="n">
+        <v>362.05</v>
+      </c>
+      <c r="K589" t="n">
+        <v>364.08</v>
+      </c>
+      <c r="L589" t="n">
+        <v>369.38</v>
+      </c>
+      <c r="M589" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="N589" t="n">
+        <v>375.6866666666667</v>
+      </c>
+      <c r="O589" t="n">
+        <v>378.5966666666667</v>
+      </c>
+      <c r="P589" t="n">
+        <v>381.4723076923077</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>375.4188888888889</v>
+      </c>
+      <c r="R589" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:12:19+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>375.7185714285715</v>
+      </c>
+      <c r="C590" t="n">
+        <v>379.8485714285715</v>
+      </c>
+      <c r="D590" t="n">
+        <v>378.97</v>
+      </c>
+      <c r="E590" t="n">
+        <v>385.5785714285714</v>
+      </c>
+      <c r="F590" t="n">
+        <v>386.43</v>
+      </c>
+      <c r="G590" t="n">
+        <v>388.0285714285715</v>
+      </c>
+      <c r="H590" t="n">
+        <v>385.32</v>
+      </c>
+      <c r="I590" t="n">
+        <v>392.28</v>
+      </c>
+      <c r="J590" t="n">
+        <v>387.32</v>
+      </c>
+      <c r="K590" t="n">
+        <v>387.2</v>
+      </c>
+      <c r="L590" t="n">
+        <v>393.41</v>
+      </c>
+      <c r="M590" t="n">
+        <v>392.62</v>
+      </c>
+      <c r="N590" t="n">
+        <v>392.6233333333333</v>
+      </c>
+      <c r="O590" t="n">
+        <v>396.3833333333333</v>
+      </c>
+      <c r="P590" t="n">
+        <v>401.5123076923077</v>
+      </c>
+      <c r="Q590" t="n">
+        <v>397.6077777777778</v>
+      </c>
+      <c r="R590" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>368.4242857142857</v>
+      </c>
+      <c r="C591" t="n">
+        <v>377.4742857142857</v>
+      </c>
+      <c r="D591" t="n">
+        <v>382.68</v>
+      </c>
+      <c r="E591" t="n">
+        <v>381.1642857142857</v>
+      </c>
+      <c r="F591" t="n">
+        <v>382</v>
+      </c>
+      <c r="G591" t="n">
+        <v>391.1342857142857</v>
+      </c>
+      <c r="H591" t="n">
+        <v>387.28</v>
+      </c>
+      <c r="I591" t="n">
+        <v>383.03</v>
+      </c>
+      <c r="J591" t="n">
+        <v>386.29</v>
+      </c>
+      <c r="K591" t="n">
+        <v>392.54</v>
+      </c>
+      <c r="L591" t="n">
+        <v>394.69</v>
+      </c>
+      <c r="M591" t="n">
+        <v>391.8</v>
+      </c>
+      <c r="N591" t="n">
+        <v>396.1033333333333</v>
+      </c>
+      <c r="O591" t="n">
+        <v>399.1133333333333</v>
+      </c>
+      <c r="P591" t="n">
+        <v>400.2176923076924</v>
+      </c>
+      <c r="Q591" t="n">
+        <v>396.9411111111111</v>
+      </c>
+      <c r="R591" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>355.9442857142857</v>
+      </c>
+      <c r="C592" t="n">
+        <v>361.5542857142857</v>
+      </c>
+      <c r="D592" t="n">
+        <v>361.83</v>
+      </c>
+      <c r="E592" t="n">
+        <v>365.6442857142857</v>
+      </c>
+      <c r="F592" t="n">
+        <v>369.08</v>
+      </c>
+      <c r="G592" t="n">
+        <v>371.5842857142857</v>
+      </c>
+      <c r="H592" t="n">
+        <v>372.03</v>
+      </c>
+      <c r="I592" t="n">
+        <v>372.46</v>
+      </c>
+      <c r="J592" t="n">
+        <v>371.1</v>
+      </c>
+      <c r="K592" t="n">
+        <v>375.46</v>
+      </c>
+      <c r="L592" t="n">
+        <v>377.07</v>
+      </c>
+      <c r="M592" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="N592" t="n">
+        <v>383.2833333333333</v>
+      </c>
+      <c r="O592" t="n">
+        <v>387.3833333333333</v>
+      </c>
+      <c r="P592" t="n">
+        <v>388.8869230769231</v>
+      </c>
+      <c r="Q592" t="n">
+        <v>381.5544444444445</v>
+      </c>
+      <c r="R592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>360.6171428571428</v>
+      </c>
+      <c r="C593" t="n">
+        <v>364.4271428571428</v>
+      </c>
+      <c r="D593" t="n">
+        <v>361.34</v>
+      </c>
+      <c r="E593" t="n">
+        <v>369.5871428571429</v>
+      </c>
+      <c r="F593" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="G593" t="n">
+        <v>379.0071428571428</v>
+      </c>
+      <c r="H593" t="n">
+        <v>374.68</v>
+      </c>
+      <c r="I593" t="n">
+        <v>376.09</v>
+      </c>
+      <c r="J593" t="n">
+        <v>371.47</v>
+      </c>
+      <c r="K593" t="n">
+        <v>375.17</v>
+      </c>
+      <c r="L593" t="n">
+        <v>380.16</v>
+      </c>
+      <c r="M593" t="n">
+        <v>377.4</v>
+      </c>
+      <c r="N593" t="n">
+        <v>380.9233333333333</v>
+      </c>
+      <c r="O593" t="n">
+        <v>387.2633333333333</v>
+      </c>
+      <c r="P593" t="n">
+        <v>388.4153846153847</v>
+      </c>
+      <c r="Q593" t="n">
+        <v>381.0177777777778</v>
+      </c>
+      <c r="R593" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:12:19+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr"/>
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr"/>
+      <c r="E594" t="inlineStr"/>
+      <c r="F594" t="inlineStr"/>
+      <c r="G594" t="inlineStr"/>
+      <c r="H594" t="inlineStr"/>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>374.95</v>
+      </c>
+      <c r="L594" t="n">
+        <v>381.18</v>
+      </c>
+      <c r="M594" t="n">
+        <v>380.5100000000001</v>
+      </c>
+      <c r="N594" t="n">
+        <v>382.04</v>
+      </c>
+      <c r="O594" t="n">
+        <v>385.44</v>
+      </c>
+      <c r="P594" t="n">
+        <v>386.5084615384616</v>
+      </c>
+      <c r="Q594" t="n">
+        <v>382.6066666666667</v>
+      </c>
+      <c r="R594" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>367.0342857142857</v>
+      </c>
+      <c r="C595" t="n">
+        <v>367.8142857142857</v>
+      </c>
+      <c r="D595" t="n">
+        <v>373.55</v>
+      </c>
+      <c r="E595" t="n">
+        <v>369.1542857142857</v>
+      </c>
+      <c r="F595" t="n">
+        <v>372.06</v>
+      </c>
+      <c r="G595" t="n">
+        <v>367.3242857142857</v>
+      </c>
+      <c r="H595" t="n">
+        <v>371.85</v>
+      </c>
+      <c r="I595" t="n">
+        <v>371.01</v>
+      </c>
+      <c r="J595" t="n">
+        <v>372</v>
+      </c>
+      <c r="K595" t="n">
+        <v>376.97</v>
+      </c>
+      <c r="L595" t="n">
+        <v>381.47</v>
+      </c>
+      <c r="M595" t="n">
+        <v>383.41</v>
+      </c>
+      <c r="N595" t="n">
+        <v>382.9266666666667</v>
+      </c>
+      <c r="O595" t="n">
+        <v>382.4266666666667</v>
+      </c>
+      <c r="P595" t="n">
+        <v>387.5769230769231</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>389.0122222222223</v>
+      </c>
+      <c r="R595" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31905,7 +32307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B610"/>
+  <dimension ref="A1:B617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38013,6 +38415,76 @@
       </c>
       <c r="B610" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -38181,28 +38653,28 @@
         <v>0.039</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4347455702472016</v>
+        <v>-0.4494739998051728</v>
       </c>
       <c r="J2" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K2" t="n">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1004564041235814</v>
+        <v>0.107312896606386</v>
       </c>
       <c r="M2" t="n">
-        <v>7.632689367558845</v>
+        <v>7.648025550158374</v>
       </c>
       <c r="N2" t="n">
-        <v>96.82952643959649</v>
+        <v>97.35711437718501</v>
       </c>
       <c r="O2" t="n">
-        <v>9.840199512184521</v>
+        <v>9.866970881541356</v>
       </c>
       <c r="P2" t="n">
-        <v>379.3018181005347</v>
+        <v>379.4394848003156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -38258,28 +38730,28 @@
         <v>0.0366</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.395901153195805</v>
+        <v>-0.4179240413458439</v>
       </c>
       <c r="J3" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K3" t="n">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09201701504461002</v>
+        <v>0.1016949910098132</v>
       </c>
       <c r="M3" t="n">
-        <v>7.288062682355232</v>
+        <v>7.321406829375666</v>
       </c>
       <c r="N3" t="n">
-        <v>88.35349117541094</v>
+        <v>89.24983691954955</v>
       </c>
       <c r="O3" t="n">
-        <v>9.399653779550125</v>
+        <v>9.447213182708939</v>
       </c>
       <c r="P3" t="n">
-        <v>386.9155343746358</v>
+        <v>387.1221116757465</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -38335,28 +38807,28 @@
         <v>0.0407</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3255499406100936</v>
+        <v>-0.3408754142574563</v>
       </c>
       <c r="J4" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K4" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0767704890005404</v>
+        <v>0.08389486544030478</v>
       </c>
       <c r="M4" t="n">
-        <v>6.547508783488924</v>
+        <v>6.581208031853993</v>
       </c>
       <c r="N4" t="n">
-        <v>71.5627835568806</v>
+        <v>72.10673931908821</v>
       </c>
       <c r="O4" t="n">
-        <v>8.459478917574096</v>
+        <v>8.491568719564613</v>
       </c>
       <c r="P4" t="n">
-        <v>384.9813210716554</v>
+        <v>385.1277640690983</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -38412,28 +38884,28 @@
         <v>0.0373</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3012860671448771</v>
+        <v>-0.3141280611931834</v>
       </c>
       <c r="J5" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K5" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04433033529327257</v>
+        <v>0.04860979097967966</v>
       </c>
       <c r="M5" t="n">
-        <v>8.385255519662261</v>
+        <v>8.398162225849561</v>
       </c>
       <c r="N5" t="n">
-        <v>110.0670622969838</v>
+        <v>109.9127109646662</v>
       </c>
       <c r="O5" t="n">
-        <v>10.49128506413699</v>
+        <v>10.48392631434741</v>
       </c>
       <c r="P5" t="n">
-        <v>385.340133324258</v>
+        <v>385.4629789316643</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -38489,28 +38961,28 @@
         <v>0.0409</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.202169285765309</v>
+        <v>-0.2120984044023375</v>
       </c>
       <c r="J6" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K6" t="n">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02425627946354569</v>
+        <v>0.02694653949286296</v>
       </c>
       <c r="M6" t="n">
-        <v>7.554514381716081</v>
+        <v>7.571455834634412</v>
       </c>
       <c r="N6" t="n">
-        <v>93.59741914031392</v>
+        <v>93.55360544081717</v>
       </c>
       <c r="O6" t="n">
-        <v>9.674575915269564</v>
+        <v>9.67231127708456</v>
       </c>
       <c r="P6" t="n">
-        <v>382.9899243245537</v>
+        <v>383.0839716448919</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -38566,28 +39038,28 @@
         <v>0.0387</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2113898159157089</v>
+        <v>-0.2262973481149129</v>
       </c>
       <c r="J7" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K7" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02245580104307165</v>
+        <v>0.0257962048052871</v>
       </c>
       <c r="M7" t="n">
-        <v>8.404305504021316</v>
+        <v>8.450916370553983</v>
       </c>
       <c r="N7" t="n">
-        <v>110.6517380929101</v>
+        <v>111.2906726656866</v>
       </c>
       <c r="O7" t="n">
-        <v>10.51911298983475</v>
+        <v>10.54943944793687</v>
       </c>
       <c r="P7" t="n">
-        <v>387.9965936755912</v>
+        <v>388.1381731067874</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -38643,28 +39115,28 @@
         <v>0.0417</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2098830775441893</v>
+        <v>-0.2260712504265305</v>
       </c>
       <c r="J8" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K8" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02772712911710229</v>
+        <v>0.03229572212022491</v>
       </c>
       <c r="M8" t="n">
-        <v>7.406716051497214</v>
+        <v>7.44437152392572</v>
       </c>
       <c r="N8" t="n">
-        <v>86.27746260867083</v>
+        <v>86.64513481838914</v>
       </c>
       <c r="O8" t="n">
-        <v>9.288566229977091</v>
+        <v>9.308336844914301</v>
       </c>
       <c r="P8" t="n">
-        <v>387.7839782749202</v>
+        <v>387.937416696364</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -38720,28 +39192,28 @@
         <v>0.0404</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07270849408252493</v>
+        <v>-0.0846223547022819</v>
       </c>
       <c r="J9" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K9" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003543767293450739</v>
+        <v>0.004825345568875261</v>
       </c>
       <c r="M9" t="n">
-        <v>7.165015442505536</v>
+        <v>7.200202130758689</v>
       </c>
       <c r="N9" t="n">
-        <v>83.82321219927738</v>
+        <v>84.30228924745971</v>
       </c>
       <c r="O9" t="n">
-        <v>9.15550174481319</v>
+        <v>9.181627810331875</v>
       </c>
       <c r="P9" t="n">
-        <v>382.9615045477613</v>
+        <v>383.0742229742679</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -38797,28 +39269,28 @@
         <v>0.0404</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1346008230919305</v>
+        <v>-0.1476525103736181</v>
       </c>
       <c r="J10" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K10" t="n">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01167925737502362</v>
+        <v>0.01413778883425321</v>
       </c>
       <c r="M10" t="n">
-        <v>7.381695632674697</v>
+        <v>7.416321952267706</v>
       </c>
       <c r="N10" t="n">
-        <v>86.95362008927798</v>
+        <v>87.26478238149402</v>
       </c>
       <c r="O10" t="n">
-        <v>9.324892497464942</v>
+        <v>9.341562095361461</v>
       </c>
       <c r="P10" t="n">
-        <v>384.1370375980323</v>
+        <v>384.2601615481694</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -38874,28 +39346,28 @@
         <v>0.0405</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1854234972748251</v>
+        <v>-0.2009777800741584</v>
       </c>
       <c r="J11" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K11" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0195721537701582</v>
+        <v>0.0231996404530096</v>
       </c>
       <c r="M11" t="n">
-        <v>7.596494034623761</v>
+        <v>7.622025084732767</v>
       </c>
       <c r="N11" t="n">
-        <v>97.2890410015811</v>
+        <v>97.42380484618857</v>
       </c>
       <c r="O11" t="n">
-        <v>9.863520720390925</v>
+        <v>9.870349783375895</v>
       </c>
       <c r="P11" t="n">
-        <v>388.6421766134675</v>
+        <v>388.7890931788208</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -38951,28 +39423,28 @@
         <v>0.041</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1129003621353201</v>
+        <v>-0.1293188577787479</v>
       </c>
       <c r="J12" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K12" t="n">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007052796364910074</v>
+        <v>0.009354888326379984</v>
       </c>
       <c r="M12" t="n">
-        <v>7.968403653889743</v>
+        <v>7.993489268463144</v>
       </c>
       <c r="N12" t="n">
-        <v>100.6759435809523</v>
+        <v>100.7469741476877</v>
       </c>
       <c r="O12" t="n">
-        <v>10.03374025879444</v>
+        <v>10.03727922037081</v>
       </c>
       <c r="P12" t="n">
-        <v>391.5983465066226</v>
+        <v>391.7541463115173</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -39028,28 +39500,28 @@
         <v>0.0507</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.007592356023735368</v>
+        <v>-0.0235693108487816</v>
       </c>
       <c r="J13" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K13" t="n">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L13" t="n">
-        <v>4.403627499049989e-05</v>
+        <v>0.000429710363313629</v>
       </c>
       <c r="M13" t="n">
-        <v>6.888753731421116</v>
+        <v>6.911345963975889</v>
       </c>
       <c r="N13" t="n">
-        <v>73.03962506976234</v>
+        <v>73.1560216090152</v>
       </c>
       <c r="O13" t="n">
-        <v>8.546322312536681</v>
+        <v>8.553129345977132</v>
       </c>
       <c r="P13" t="n">
-        <v>388.8354773798678</v>
+        <v>388.986939645688</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -39105,28 +39577,28 @@
         <v>0.0611</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04801789567714364</v>
+        <v>0.0371333988280175</v>
       </c>
       <c r="J14" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K14" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002326228940302322</v>
+        <v>0.00141197748772226</v>
       </c>
       <c r="M14" t="n">
-        <v>5.919668832907425</v>
+        <v>5.940004921613802</v>
       </c>
       <c r="N14" t="n">
-        <v>55.59568613814822</v>
+        <v>55.63985017974096</v>
       </c>
       <c r="O14" t="n">
-        <v>7.456251480345081</v>
+        <v>7.45921243696283</v>
       </c>
       <c r="P14" t="n">
-        <v>387.6320910657465</v>
+        <v>387.7346117931335</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -39182,28 +39654,28 @@
         <v>0.0658</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1009206817465775</v>
+        <v>0.08900571358086001</v>
       </c>
       <c r="J15" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K15" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009627951474752372</v>
+        <v>0.007603405274071218</v>
       </c>
       <c r="M15" t="n">
-        <v>6.167021013001636</v>
+        <v>6.189963652111166</v>
       </c>
       <c r="N15" t="n">
-        <v>59.00035894925206</v>
+        <v>59.08161081061193</v>
       </c>
       <c r="O15" t="n">
-        <v>7.681169113439181</v>
+        <v>7.686456323339899</v>
       </c>
       <c r="P15" t="n">
-        <v>389.9505216338682</v>
+        <v>390.0629831026212</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -39259,28 +39731,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07286824796332693</v>
+        <v>0.05891282366514523</v>
       </c>
       <c r="J16" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K16" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004735006276367915</v>
+        <v>0.003139611157011668</v>
       </c>
       <c r="M16" t="n">
-        <v>6.170140022569118</v>
+        <v>6.201889563265717</v>
       </c>
       <c r="N16" t="n">
-        <v>62.45245428640127</v>
+        <v>62.59278667336083</v>
       </c>
       <c r="O16" t="n">
-        <v>7.902686523354022</v>
+        <v>7.911560318506131</v>
       </c>
       <c r="P16" t="n">
-        <v>393.9318790091878</v>
+        <v>394.0637767400144</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -39336,28 +39808,28 @@
         <v>0.0455</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1415184920982123</v>
+        <v>-0.1642764052106706</v>
       </c>
       <c r="J17" t="n">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K17" t="n">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01300846339460315</v>
+        <v>0.01756966843812946</v>
       </c>
       <c r="M17" t="n">
-        <v>7.313177316871894</v>
+        <v>7.357770375356963</v>
       </c>
       <c r="N17" t="n">
-        <v>84.90424367934295</v>
+        <v>85.53790203094255</v>
       </c>
       <c r="O17" t="n">
-        <v>9.214349878279148</v>
+        <v>9.248670284475631</v>
       </c>
       <c r="P17" t="n">
-        <v>398.1969098293814</v>
+        <v>398.4139707122966</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -39394,7 +39866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R588"/>
+  <dimension ref="A1:R595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85790,6 +86262,614 @@
         </is>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-36.78470265763025,174.77508603239195</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-36.78541071307408,174.77486948842613</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-36.78612543041465,174.775028474086</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-36.7868223298122,174.7752335079253</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-36.78749518317548,174.77554724850756</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>-36.7881463119945,174.7759220091043</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>-36.78873773389952,174.77642919217004</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>-36.78930913137923,174.7769732313646</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>-36.789865019002804,174.77754332062406</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>-36.790415332178696,174.77812134616954</t>
+        </is>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>-36.79093791494569,174.77873565689066</t>
+        </is>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>-36.79144932874835,174.77936403578013</t>
+        </is>
+      </c>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>-36.79196186748546,174.77999471059184</t>
+        </is>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>-36.792475098405646,174.780621942189</t>
+        </is>
+      </c>
+      <c r="P589" t="inlineStr">
+        <is>
+          <t>-36.79297650824364,174.78125481917348</t>
+        </is>
+      </c>
+      <c r="Q589" t="inlineStr">
+        <is>
+          <t>-36.7935113744898,174.7818516404003</t>
+        </is>
+      </c>
+      <c r="R589" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:12:19+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-36.78480101958243,174.77541366351574</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-36.78544039811499,174.77514469445464</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-36.78610106723222,174.775201070064</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-36.78675544529662,174.77548112211446</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-36.787400328511744,174.77581239886266</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>-36.78802343063094,174.77619220333605</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>-36.78861727553995,174.77663282274136</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>-36.789130481370286,174.77724492139868</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>-36.78972087769546,174.77776252992757</t>
+        </is>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>-36.79028225632969,174.77832067899362</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>-36.79079432053507,174.77893720630925</t>
+        </is>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>-36.791325787970145,174.77952905312875</t>
+        </is>
+      </c>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>-36.791857872537456,174.78013361966916</t>
+        </is>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>-36.79236492355116,174.78076670248572</t>
+        </is>
+      </c>
+      <c r="P590" t="inlineStr">
+        <is>
+          <t>-36.79284805174699,174.78141265858304</t>
+        </is>
+      </c>
+      <c r="Q590" t="inlineStr">
+        <is>
+          <t>-36.79336563724243,174.78202188143783</t>
+        </is>
+      </c>
+      <c r="R590" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-36.784778032978274,174.77533709771893</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-36.78543755421051,174.77511832873182</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-36.786095287949905,174.7752420119313</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-36.786768109907534,174.77543423644244</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-36.787416552728615,174.77576704693848</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>-36.78800965459951,174.77622249423928</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>-36.788606810170236,174.77665051401942</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>-36.7891832436472,174.77716468101957</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>-36.78972675287302,174.77775359501763</t>
+        </is>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>-36.79025151990751,174.7783667185697</t>
+        </is>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>-36.79078667171841,174.7789479421705</t>
+        </is>
+      </c>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>-36.79133082293653,174.77952232778</t>
+        </is>
+      </c>
+      <c r="N591" t="inlineStr">
+        <is>
+          <t>-36.79183650453458,174.78016216146008</t>
+        </is>
+      </c>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>-36.79234801326541,174.7807889210927</t>
+        </is>
+      </c>
+      <c r="P591" t="inlineStr">
+        <is>
+          <t>-36.79285635024383,174.78140246192592</t>
+        </is>
+      </c>
+      <c r="Q591" t="inlineStr">
+        <is>
+          <t>-36.793370015931224,174.78201676654373</t>
+        </is>
+      </c>
+      <c r="R591" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-36.78473870442881,174.77520609923093</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>-36.78541848518231,174.774941542004</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>-36.78612776702398,174.77501192075704</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>-36.78681263673243,174.775269392968</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>-36.78746387021304,174.77563477891164</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>-36.78809637250201,174.77603181741702</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>-36.78868823708741,174.77651286491636</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>-36.789243535180375,174.7770729899858</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>-36.78981339740756,174.77762182662323</t>
+        </is>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>-36.790349830351644,174.7782194607692</t>
+        </is>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>-36.790891962379376,174.77880015614178</t>
+        </is>
+      </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>-36.79140266327119,174.77942636843952</t>
+        </is>
+      </c>
+      <c r="N592" t="inlineStr">
+        <is>
+          <t>-36.791915222260165,174.78005701604823</t>
+        </is>
+      </c>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>-36.792420671718055,174.78069345426155</t>
+        </is>
+      </c>
+      <c r="P592" t="inlineStr">
+        <is>
+          <t>-36.79292898054635,174.78131321836238</t>
+        </is>
+      </c>
+      <c r="Q592" t="inlineStr">
+        <is>
+          <t>-36.79347107601104,174.78189871462644</t>
+        </is>
+      </c>
+      <c r="R592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-36.78475343014274,174.77525514867258</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>-36.785421926319636,174.77497344419766</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>-36.78612853031587,174.77500651333597</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>-36.78680132471049,174.7753112714837</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>-36.78745592293658,174.7756569942189</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>-36.788063446981724,174.77610421474807</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>-36.78867408750294,174.77653678428982</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>-36.78922282958103,174.77710447897587</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>-36.78981128691035,174.7776250362585</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>-36.79035149955558,174.77821696048713</t>
+        </is>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>-36.790873497684714,174.77882607324432</t>
+        </is>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>-36.79141924179953,174.7794042239508</t>
+        </is>
+      </c>
+      <c r="N593" t="inlineStr">
+        <is>
+          <t>-36.79192971318912,174.78003766008305</t>
+        </is>
+      </c>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>-36.79242141502665,174.78069247761786</t>
+        </is>
+      </c>
+      <c r="P593" t="inlineStr">
+        <is>
+          <t>-36.792932003109506,174.78130950442088</t>
+        </is>
+      </c>
+      <c r="Q593" t="inlineStr">
+        <is>
+          <t>-36.79347460085152,174.78189459712544</t>
+        </is>
+      </c>
+      <c r="R593" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:12:19+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr"/>
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr"/>
+      <c r="E594" t="inlineStr"/>
+      <c r="F594" t="inlineStr"/>
+      <c r="G594" t="inlineStr"/>
+      <c r="H594" t="inlineStr"/>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>-36.79035276584819,174.77821506372132</t>
+        </is>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>-36.790867402541615,174.77883462840163</t>
+        </is>
+      </c>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>-36.79140014579061,174.77942973112027</t>
+        </is>
+      </c>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>-36.79192285660587,174.7800468186268</t>
+        </is>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>-36.792432709187,174.78067763805697</t>
+        </is>
+      </c>
+      <c r="P594" t="inlineStr">
+        <is>
+          <t>-36.79294422649183,174.78129448506886</t>
+        </is>
+      </c>
+      <c r="Q594" t="inlineStr">
+        <is>
+          <t>-36.79346416498802,174.78190678765517</t>
+        </is>
+      </c>
+      <c r="R594" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-36.78477365264236,174.77532250733609</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>-36.78542598346249,174.775011057379</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>-36.786109510255706,174.77514125740484</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>-36.78680256657447,174.77530667395163</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>-36.787452956440625,174.77566528656737</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>-36.78811526853773,174.77599026834284</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>-36.788689198191086,174.77651124020386</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>-36.78925180600986,174.77706041173434</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>-36.78980826376556,174.7776296338439</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>-36.79034113897865,174.7782324794776</t>
+        </is>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>-36.790865669608664,174.77883706075002</t>
+        </is>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>-36.79138233921815,174.7794535159293</t>
+        </is>
+      </c>
+      <c r="N595" t="inlineStr">
+        <is>
+          <t>-36.79191741227363,174.78005409078276</t>
+        </is>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>-36.792451374486525,174.7806531134349</t>
+        </is>
+      </c>
+      <c r="P595" t="inlineStr">
+        <is>
+          <t>-36.79293737765057,174.78130290051112</t>
+        </is>
+      </c>
+      <c r="Q595" t="inlineStr">
+        <is>
+          <t>-36.79342209312076,174.7819559333587</t>
+        </is>
+      </c>
+      <c r="R595" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
